--- a/apps/es/resources/screen/ES001D.xlsx
+++ b/apps/es/resources/screen/ES001D.xlsx
@@ -1057,10 +1057,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>es.views.es001d_views.ES001D</t>
+          <t>es.views.es001.ES001D</t>
         </is>
       </c>
       <c r="D10" s="8" t="n"/>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C14" s="11" t="n">
-        <v>20250214135416</v>
+        <v>20250821173900</v>
       </c>
       <c r="D14" s="8" t="inlineStr">
         <is>
@@ -1447,6 +1447,7 @@
       <c r="I19" s="11" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" s="6" t="n"/>
       <c r="C20" s="11" t="inlineStr">
         <is>
           <t>approverRcs</t>
@@ -1468,6 +1469,7 @@
       <c r="I20" s="11" t="n"/>
     </row>
     <row r="21">
+      <c r="A21" s="6" t="n"/>
       <c r="C21" s="11" t="inlineStr">
         <is>
           <t>schRc</t>
@@ -1706,6 +1708,7 @@
       <c r="T27" s="11" t="n"/>
     </row>
     <row r="28">
+      <c r="B28" s="1" t="n"/>
       <c r="C28" s="11" t="inlineStr">
         <is>
           <t>approverFg</t>
@@ -1764,6 +1767,7 @@
       <c r="T28" s="11" t="n"/>
     </row>
     <row r="29">
+      <c r="B29" s="1" t="n"/>
       <c r="C29" s="11" t="inlineStr">
         <is>
           <t>actionBar</t>
@@ -1981,15 +1985,16 @@
       <c r="P35" s="11" t="n"/>
     </row>
     <row r="36">
+      <c r="B36" s="1" t="n"/>
       <c r="C36" s="11" t="n"/>
       <c r="D36" s="11" t="inlineStr">
         <is>
-          <t>schClaimer</t>
+          <t>schContent</t>
         </is>
       </c>
       <c r="E36" s="11" t="inlineStr">
         <is>
-          <t>Claimer</t>
+          <t>Content</t>
         </is>
       </c>
       <c r="F36" s="11" t="n"/>
@@ -1997,7 +2002,11 @@
       <c r="H36" s="11" t="n"/>
       <c r="I36" s="11" t="n"/>
       <c r="J36" s="11" t="n"/>
-      <c r="K36" s="11" t="n"/>
+      <c r="K36" s="11" t="inlineStr">
+        <is>
+          <t>TextBox</t>
+        </is>
+      </c>
       <c r="L36" s="11" t="n"/>
       <c r="M36" s="11" t="n"/>
       <c r="N36" s="11" t="n"/>
@@ -2005,48 +2014,59 @@
       <c r="P36" s="11" t="n"/>
     </row>
     <row r="37">
-      <c r="C37" s="11" t="n"/>
-      <c r="D37" s="11" t="inlineStr">
-        <is>
-          <t>schContent</t>
-        </is>
-      </c>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <t>approverFg</t>
+        </is>
+      </c>
+      <c r="D37" s="11" t="n"/>
       <c r="E37" s="11" t="inlineStr">
         <is>
-          <t>Content</t>
-        </is>
-      </c>
-      <c r="F37" s="11" t="n"/>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="F37" s="11" t="inlineStr">
+        <is>
+          <t>It's mandatory.</t>
+        </is>
+      </c>
       <c r="G37" s="11" t="n"/>
       <c r="H37" s="11" t="n"/>
       <c r="I37" s="11" t="n"/>
       <c r="J37" s="11" t="n"/>
       <c r="K37" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L37" s="11" t="n"/>
-      <c r="M37" s="11" t="n"/>
+          <t>ComboBox</t>
+        </is>
+      </c>
+      <c r="L37" s="11" t="inlineStr">
+        <is>
+          <t>recordset: officeRcs
+values: {"value": "id", "display": "name"}</t>
+        </is>
+      </c>
+      <c r="M37" s="11" t="inlineStr">
+        <is>
+          <t>office_id</t>
+        </is>
+      </c>
       <c r="N37" s="11" t="n"/>
       <c r="O37" s="11" t="n"/>
       <c r="P37" s="11" t="n"/>
     </row>
     <row r="38">
-      <c r="C38" s="11" t="inlineStr">
-        <is>
-          <t>approverFg</t>
-        </is>
-      </c>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="11" t="n"/>
       <c r="D38" s="11" t="n"/>
       <c r="E38" s="11" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Claimer</t>
         </is>
       </c>
       <c r="F38" s="11" t="inlineStr">
         <is>
-          <t>It's mandatory.</t>
+          <t>Specified claimer. It's optional.</t>
         </is>
       </c>
       <c r="G38" s="11" t="n"/>
@@ -2055,18 +2075,13 @@
       <c r="J38" s="11" t="n"/>
       <c r="K38" s="11" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="L38" s="11" t="inlineStr">
-        <is>
-          <t>recordset: officeRcs
-values: {"value": "id", "display": "name"}</t>
-        </is>
-      </c>
+          <t>TextBox</t>
+        </is>
+      </c>
+      <c r="L38" s="11" t="n"/>
       <c r="M38" s="11" t="inlineStr">
         <is>
-          <t>office_id</t>
+          <t>claimer_id</t>
         </is>
       </c>
       <c r="N38" s="11" t="n"/>
@@ -2074,16 +2089,17 @@
       <c r="P38" s="11" t="n"/>
     </row>
     <row r="39">
+      <c r="B39" s="1" t="n"/>
       <c r="C39" s="11" t="n"/>
       <c r="D39" s="11" t="n"/>
       <c r="E39" s="11" t="inlineStr">
         <is>
-          <t>Claimer</t>
+          <t>Claimer Group</t>
         </is>
       </c>
       <c r="F39" s="11" t="inlineStr">
         <is>
-          <t>Specified claimer. It's optional.</t>
+          <t>User group name. It's optional.</t>
         </is>
       </c>
       <c r="G39" s="11" t="n"/>
@@ -2098,7 +2114,7 @@
       <c r="L39" s="11" t="n"/>
       <c r="M39" s="11" t="inlineStr">
         <is>
-          <t>claimer_id</t>
+          <t>claimer_grp_id</t>
         </is>
       </c>
       <c r="N39" s="11" t="n"/>
@@ -2106,18 +2122,15 @@
       <c r="P39" s="11" t="n"/>
     </row>
     <row r="40">
+      <c r="B40" s="1" t="n"/>
       <c r="C40" s="11" t="n"/>
       <c r="D40" s="11" t="n"/>
       <c r="E40" s="11" t="inlineStr">
         <is>
-          <t>Claimer Group</t>
-        </is>
-      </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>User group name. It's optional.</t>
-        </is>
-      </c>
+          <t>Approver</t>
+        </is>
+      </c>
+      <c r="F40" s="11" t="n"/>
       <c r="G40" s="11" t="n"/>
       <c r="H40" s="11" t="n"/>
       <c r="I40" s="11" t="n"/>
@@ -2130,7 +2143,7 @@
       <c r="L40" s="11" t="n"/>
       <c r="M40" s="11" t="inlineStr">
         <is>
-          <t>claimer_grp_id</t>
+          <t>approver_id</t>
         </is>
       </c>
       <c r="N40" s="11" t="n"/>
@@ -2138,14 +2151,19 @@
       <c r="P40" s="11" t="n"/>
     </row>
     <row r="41">
+      <c r="B41" s="1" t="n"/>
       <c r="C41" s="11" t="n"/>
       <c r="D41" s="11" t="n"/>
       <c r="E41" s="11" t="inlineStr">
         <is>
-          <t>Approver</t>
-        </is>
-      </c>
-      <c r="F41" s="11" t="n"/>
+          <t>Approver Group</t>
+        </is>
+      </c>
+      <c r="F41" s="11" t="inlineStr">
+        <is>
+          <t>User group name.</t>
+        </is>
+      </c>
       <c r="G41" s="11" t="n"/>
       <c r="H41" s="11" t="n"/>
       <c r="I41" s="11" t="n"/>
@@ -2158,7 +2176,7 @@
       <c r="L41" s="11" t="n"/>
       <c r="M41" s="11" t="inlineStr">
         <is>
-          <t>approver_id</t>
+          <t>approver_grp_id</t>
         </is>
       </c>
       <c r="N41" s="11" t="n"/>
@@ -2166,16 +2184,17 @@
       <c r="P41" s="11" t="n"/>
     </row>
     <row r="42">
+      <c r="B42" s="1" t="n"/>
       <c r="C42" s="11" t="n"/>
       <c r="D42" s="11" t="n"/>
       <c r="E42" s="11" t="inlineStr">
         <is>
-          <t>Approver Group</t>
+          <t>Approver Assistant</t>
         </is>
       </c>
       <c r="F42" s="11" t="inlineStr">
         <is>
-          <t>User group name.</t>
+          <t>This user has the same rights as the approver.</t>
         </is>
       </c>
       <c r="G42" s="11" t="n"/>
@@ -2190,7 +2209,7 @@
       <c r="L42" s="11" t="n"/>
       <c r="M42" s="11" t="inlineStr">
         <is>
-          <t>approver_grp_id</t>
+          <t>approver_assistant_id</t>
         </is>
       </c>
       <c r="N42" s="11" t="n"/>
@@ -2198,16 +2217,17 @@
       <c r="P42" s="11" t="n"/>
     </row>
     <row r="43">
+      <c r="B43" s="1" t="n"/>
       <c r="C43" s="11" t="n"/>
       <c r="D43" s="11" t="n"/>
       <c r="E43" s="11" t="inlineStr">
         <is>
-          <t>Approver Assistant</t>
+          <t>Approver Assistant Group</t>
         </is>
       </c>
       <c r="F43" s="11" t="inlineStr">
         <is>
-          <t>This user has the same rights as the approver.</t>
+          <t>User group name.</t>
         </is>
       </c>
       <c r="G43" s="11" t="n"/>
@@ -2222,7 +2242,7 @@
       <c r="L43" s="11" t="n"/>
       <c r="M43" s="11" t="inlineStr">
         <is>
-          <t>approver_assistant_id</t>
+          <t>approver_assistant_grp_id</t>
         </is>
       </c>
       <c r="N43" s="11" t="n"/>
@@ -2230,18 +2250,15 @@
       <c r="P43" s="11" t="n"/>
     </row>
     <row r="44">
+      <c r="B44" s="1" t="n"/>
       <c r="C44" s="11" t="n"/>
       <c r="D44" s="11" t="n"/>
       <c r="E44" s="11" t="inlineStr">
         <is>
-          <t>Approver Assistant Group</t>
-        </is>
-      </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>User group name.</t>
-        </is>
-      </c>
+          <t>2nd Approver</t>
+        </is>
+      </c>
+      <c r="F44" s="11" t="n"/>
       <c r="G44" s="11" t="n"/>
       <c r="H44" s="11" t="n"/>
       <c r="I44" s="11" t="n"/>
@@ -2254,7 +2271,7 @@
       <c r="L44" s="11" t="n"/>
       <c r="M44" s="11" t="inlineStr">
         <is>
-          <t>approver_assistant_grp_id</t>
+          <t>approver2_id</t>
         </is>
       </c>
       <c r="N44" s="11" t="n"/>
@@ -2262,14 +2279,19 @@
       <c r="P44" s="11" t="n"/>
     </row>
     <row r="45">
+      <c r="B45" s="1" t="n"/>
       <c r="C45" s="11" t="n"/>
       <c r="D45" s="11" t="n"/>
       <c r="E45" s="11" t="inlineStr">
         <is>
-          <t>2nd Approver</t>
-        </is>
-      </c>
-      <c r="F45" s="11" t="n"/>
+          <t>2nd Approver Group</t>
+        </is>
+      </c>
+      <c r="F45" s="11" t="inlineStr">
+        <is>
+          <t>User group name.</t>
+        </is>
+      </c>
       <c r="G45" s="11" t="n"/>
       <c r="H45" s="11" t="n"/>
       <c r="I45" s="11" t="n"/>
@@ -2282,7 +2304,7 @@
       <c r="L45" s="11" t="n"/>
       <c r="M45" s="11" t="inlineStr">
         <is>
-          <t>approver2_id</t>
+          <t>approver2_grp_id</t>
         </is>
       </c>
       <c r="N45" s="11" t="n"/>
@@ -2290,18 +2312,15 @@
       <c r="P45" s="11" t="n"/>
     </row>
     <row r="46">
+      <c r="B46" s="1" t="n"/>
       <c r="C46" s="11" t="n"/>
       <c r="D46" s="11" t="n"/>
       <c r="E46" s="11" t="inlineStr">
         <is>
-          <t>2nd Approver Group</t>
-        </is>
-      </c>
-      <c r="F46" s="11" t="inlineStr">
-        <is>
-          <t>User group name.</t>
-        </is>
-      </c>
+          <t>2nd Approve Min Amount</t>
+        </is>
+      </c>
+      <c r="F46" s="11" t="n"/>
       <c r="G46" s="11" t="n"/>
       <c r="H46" s="11" t="n"/>
       <c r="I46" s="11" t="n"/>
@@ -2314,7 +2333,7 @@
       <c r="L46" s="11" t="n"/>
       <c r="M46" s="11" t="inlineStr">
         <is>
-          <t>approver2_grp_id</t>
+          <t>approver2_min_amount</t>
         </is>
       </c>
       <c r="N46" s="11" t="n"/>
@@ -2322,27 +2341,32 @@
       <c r="P46" s="11" t="n"/>
     </row>
     <row r="47">
+      <c r="B47" s="1" t="n"/>
       <c r="C47" s="11" t="n"/>
       <c r="D47" s="11" t="n"/>
       <c r="E47" s="11" t="inlineStr">
         <is>
-          <t>2nd Approve Min Amount</t>
-        </is>
-      </c>
-      <c r="F47" s="11" t="n"/>
+          <t>Enable</t>
+        </is>
+      </c>
+      <c r="F47" s="11" t="inlineStr">
+        <is>
+          <t>Enable this rule.</t>
+        </is>
+      </c>
       <c r="G47" s="11" t="n"/>
       <c r="H47" s="11" t="n"/>
       <c r="I47" s="11" t="n"/>
       <c r="J47" s="11" t="n"/>
       <c r="K47" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>CheckBox</t>
         </is>
       </c>
       <c r="L47" s="11" t="n"/>
       <c r="M47" s="11" t="inlineStr">
         <is>
-          <t>approver2_min_amount</t>
+          <t>enable</t>
         </is>
       </c>
       <c r="N47" s="11" t="n"/>
@@ -2350,31 +2374,28 @@
       <c r="P47" s="11" t="n"/>
     </row>
     <row r="48">
+      <c r="B48" s="1" t="n"/>
       <c r="C48" s="11" t="n"/>
       <c r="D48" s="11" t="n"/>
       <c r="E48" s="11" t="inlineStr">
         <is>
-          <t>Enable</t>
-        </is>
-      </c>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>Enable this rule.</t>
-        </is>
-      </c>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="F48" s="11" t="n"/>
       <c r="G48" s="11" t="n"/>
       <c r="H48" s="11" t="n"/>
       <c r="I48" s="11" t="n"/>
       <c r="J48" s="11" t="n"/>
       <c r="K48" s="11" t="inlineStr">
         <is>
-          <t>CheckBox</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="L48" s="11" t="n"/>
       <c r="M48" s="11" t="inlineStr">
         <is>
-          <t>enable</t>
+          <t>rmk</t>
         </is>
       </c>
       <c r="N48" s="11" t="n"/>
@@ -2382,11 +2403,20 @@
       <c r="P48" s="11" t="n"/>
     </row>
     <row r="49">
-      <c r="C49" s="11" t="n"/>
-      <c r="D49" s="11" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <t>actionBar</t>
+        </is>
+      </c>
+      <c r="D49" s="11" t="inlineStr">
+        <is>
+          <t>save</t>
+        </is>
+      </c>
       <c r="E49" s="11" t="inlineStr">
         <is>
-          <t>Remarks</t>
+          <t>Save</t>
         </is>
       </c>
       <c r="F49" s="11" t="n"/>
@@ -2396,274 +2426,238 @@
       <c r="J49" s="11" t="n"/>
       <c r="K49" s="11" t="inlineStr">
         <is>
-          <t>TextBox</t>
-        </is>
-      </c>
-      <c r="L49" s="11" t="n"/>
-      <c r="M49" s="11" t="inlineStr">
-        <is>
-          <t>rmk</t>
-        </is>
-      </c>
-      <c r="N49" s="11" t="n"/>
+          <t>IconAndText</t>
+        </is>
+      </c>
+      <c r="L49" s="11" t="inlineStr">
+        <is>
+          <t>icon:images/save_button.gif</t>
+        </is>
+      </c>
+      <c r="M49" s="11" t="n"/>
+      <c r="N49" s="11" t="inlineStr">
+        <is>
+          <t>save(approverFg)</t>
+        </is>
+      </c>
       <c r="O49" s="11" t="n"/>
       <c r="P49" s="11" t="n"/>
     </row>
     <row r="50">
-      <c r="C50" s="11" t="inlineStr">
-        <is>
-          <t>actionBar</t>
-        </is>
-      </c>
-      <c r="D50" s="11" t="inlineStr">
-        <is>
-          <t>save</t>
-        </is>
-      </c>
-      <c r="E50" s="11" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
-      <c r="F50" s="11" t="n"/>
-      <c r="G50" s="11" t="n"/>
-      <c r="H50" s="11" t="n"/>
-      <c r="I50" s="11" t="n"/>
-      <c r="J50" s="11" t="n"/>
-      <c r="K50" s="11" t="inlineStr">
-        <is>
-          <t>IconAndText</t>
-        </is>
-      </c>
-      <c r="L50" s="11" t="inlineStr">
-        <is>
-          <t>icon:images/save_button.gif</t>
-        </is>
-      </c>
-      <c r="M50" s="11" t="n"/>
-      <c r="N50" s="11" t="inlineStr">
-        <is>
-          <t>save(approverFg)</t>
-        </is>
-      </c>
-      <c r="O50" s="11" t="n"/>
-      <c r="P50" s="11" t="n"/>
-    </row>
-    <row r="51">
-      <c r="C51" s="5" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
-      <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
-      <c r="J51" s="3" t="n"/>
-      <c r="K51" s="3" t="n"/>
-      <c r="L51" s="3" t="n"/>
-      <c r="M51" s="3" t="n"/>
-      <c r="N51" s="3" t="n"/>
-      <c r="O51" s="3" t="n"/>
-      <c r="P51" s="3" t="n"/>
-    </row>
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
+      <c r="O50" s="3" t="n"/>
+      <c r="P50" s="3" t="n"/>
+    </row>
+    <row r="51"/>
     <row r="52"/>
     <row r="53"/>
-    <row r="54"/>
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>subScreenTable</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Sub Screen</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Sub Screen Name</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Field Groups</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="55">
-      <c r="A55" s="7" t="inlineStr">
-        <is>
-          <t>subScreenTable</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Sub Screen</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>Sub Screen Name</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>Field Groups</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="C55" s="11" t="n"/>
+      <c r="D55" s="11" t="n"/>
+      <c r="E55" s="11" t="n"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>End of Table</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="3" t="n"/>
+    </row>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59">
+      <c r="B59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>fieldGroupLinkTable</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Field Group Links</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Field Group Name</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Local Key</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Parent Field Group Name</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>Parent Key</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="C56" s="11" t="n"/>
-      <c r="D56" s="11" t="n"/>
-      <c r="E56" s="11" t="n"/>
-    </row>
-    <row r="57">
-      <c r="C57" s="5" t="inlineStr">
+    <row r="61">
+      <c r="C61" s="11" t="n"/>
+      <c r="D61" s="11" t="n"/>
+      <c r="E61" s="11" t="n"/>
+      <c r="F61" s="11" t="n"/>
+      <c r="G61" s="11" t="n"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="3" t="n"/>
-    </row>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60">
-      <c r="B60" s="1" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="7" t="inlineStr">
-        <is>
-          <t>fieldGroupLinkTable</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>Field Group Links</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="D62" s="3" t="n"/>
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+    </row>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65">
+      <c r="B65" s="16" t="inlineStr">
+        <is>
+          <t>Table Header and Footer for Field Groups</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>add as many levels as needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="12" t="inlineStr">
+        <is>
+          <t>headerFooterTable</t>
+        </is>
+      </c>
+      <c r="B66" s="13" t="n"/>
+      <c r="C66" s="17" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>Local Key</t>
-        </is>
-      </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>Parent Field Group Name</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="inlineStr">
-        <is>
-          <t>Parent Key</t>
-        </is>
-      </c>
-      <c r="G61" s="3" t="inlineStr">
+      <c r="D66" s="17" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="E66" s="17" t="inlineStr">
+        <is>
+          <t>Header Level 1</t>
+        </is>
+      </c>
+      <c r="F66" s="17" t="inlineStr">
+        <is>
+          <t>Header Level 2</t>
+        </is>
+      </c>
+      <c r="G66" s="17" t="inlineStr">
+        <is>
+          <t>Header Level 3</t>
+        </is>
+      </c>
+      <c r="H66" s="17" t="inlineStr">
+        <is>
+          <t>Footer</t>
+        </is>
+      </c>
+      <c r="I66" s="17" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="C62" s="11" t="n"/>
-      <c r="D62" s="11" t="n"/>
-      <c r="E62" s="11" t="n"/>
-      <c r="F62" s="11" t="n"/>
-      <c r="G62" s="11" t="n"/>
-    </row>
-    <row r="63">
-      <c r="C63" s="5" t="inlineStr">
+      <c r="K66" s="8" t="inlineStr">
+        <is>
+          <t>optional for table field groups only</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="11" t="n"/>
+      <c r="D67" s="11" t="n"/>
+      <c r="E67" s="11" t="n"/>
+      <c r="F67" s="11" t="n"/>
+      <c r="G67" s="11" t="n"/>
+      <c r="H67" s="11" t="n"/>
+      <c r="I67" s="11" t="n"/>
+      <c r="K67" s="8" t="inlineStr">
+        <is>
+          <t>this is only an example, does not match the above definition</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D63" s="3" t="n"/>
-      <c r="E63" s="3" t="n"/>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="n"/>
-    </row>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66">
-      <c r="B66" s="16" t="inlineStr">
-        <is>
-          <t>Table Header and Footer for Field Groups</t>
-        </is>
-      </c>
-      <c r="E66" s="8" t="inlineStr">
-        <is>
-          <t>add as many levels as needed</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="12" t="inlineStr">
-        <is>
-          <t>headerFooterTable</t>
-        </is>
-      </c>
-      <c r="B67" s="13" t="n"/>
-      <c r="C67" s="17" t="inlineStr">
-        <is>
-          <t>Field Group Name</t>
-        </is>
-      </c>
-      <c r="D67" s="17" t="inlineStr">
-        <is>
-          <t>Field</t>
-        </is>
-      </c>
-      <c r="E67" s="17" t="inlineStr">
-        <is>
-          <t>Header Level 1</t>
-        </is>
-      </c>
-      <c r="F67" s="17" t="inlineStr">
-        <is>
-          <t>Header Level 2</t>
-        </is>
-      </c>
-      <c r="G67" s="17" t="inlineStr">
-        <is>
-          <t>Header Level 3</t>
-        </is>
-      </c>
-      <c r="H67" s="17" t="inlineStr">
-        <is>
-          <t>Footer</t>
-        </is>
-      </c>
-      <c r="I67" s="17" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="K67" s="8" t="inlineStr">
-        <is>
-          <t>optional for table field groups only</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" s="11" t="n"/>
-      <c r="D68" s="11" t="n"/>
-      <c r="E68" s="11" t="n"/>
-      <c r="F68" s="11" t="n"/>
-      <c r="G68" s="11" t="n"/>
-      <c r="H68" s="11" t="n"/>
-      <c r="I68" s="11" t="n"/>
-      <c r="K68" s="8" t="inlineStr">
-        <is>
-          <t>this is only an example, does not match the above definition</t>
-        </is>
-      </c>
+      <c r="D68" s="3" t="n"/>
+      <c r="E68" s="3" t="n"/>
+      <c r="F68" s="3" t="n"/>
+      <c r="G68" s="3" t="n"/>
+      <c r="H68" s="3" t="n"/>
+      <c r="I68" s="3" t="n"/>
     </row>
     <row r="69">
-      <c r="C69" s="5" t="inlineStr">
-        <is>
-          <t>End of Table</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="n"/>
-      <c r="E69" s="3" t="n"/>
-      <c r="F69" s="3" t="n"/>
-      <c r="G69" s="3" t="n"/>
-      <c r="H69" s="3" t="n"/>
-      <c r="I69" s="3" t="n"/>
-    </row>
-    <row r="70">
-      <c r="H70" s="8" t="n"/>
+      <c r="H69" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
